--- a/accums-service/src/test/resources/jmeter/report/ClaimUtilization_Consumption_Inquiry_Report.xlsx
+++ b/accums-service/src/test/resources/jmeter/report/ClaimUtilization_Consumption_Inquiry_Report.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="28">
   <si>
     <t>Label</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Accums Ledger Inquiry Performance Test:BASPIKES 12 with member and accumType</t>
+  </si>
+  <si>
+    <t>Request/sec</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1573,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:N11"/>
+      <selection activeCell="N9" sqref="N9:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1651,6 +1654,9 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
       <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1695,6 +1701,10 @@
       <c r="K3">
         <v>609.6</v>
       </c>
+      <c r="L3">
+        <f>H3*60</f>
+        <v>403.60979999999995</v>
+      </c>
       <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1738,6 +1748,10 @@
       </c>
       <c r="K4">
         <v>609.6</v>
+      </c>
+      <c r="L4">
+        <f>H4*60</f>
+        <v>403.60979999999995</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>23</v>
@@ -1813,6 +1827,9 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1854,6 +1871,10 @@
       <c r="M10">
         <v>1.32</v>
       </c>
+      <c r="N10">
+        <f>K10*60</f>
+        <v>403.60979999999995</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1894,6 +1915,10 @@
       </c>
       <c r="M11">
         <v>1.32</v>
+      </c>
+      <c r="N11">
+        <f>K11*60</f>
+        <v>403.60979999999995</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
